--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220425_110456.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220425_110456.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>melon</t>
+    <t>Melon</t>
   </si>
   <si>
     <t>2022-04-25</t>

--- a/Crawling/music/crawled_data/mod_melon/live_melon_20220425_110456.xlsx
+++ b/Crawling/music/crawled_data/mod_melon/live_melon_20220425_110456.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -763,7 +763,7 @@
     <t>EDAM</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>WM</t>
@@ -812,9 +812,6 @@
   </si>
   <si>
     <t>N.A.P</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>iMe KOREA</t>
@@ -1297,7 +1294,7 @@
         <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1323,7 +1320,7 @@
         <v>234</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1375,7 +1372,7 @@
         <v>236</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1401,7 +1398,7 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1427,7 +1424,7 @@
         <v>236</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1453,7 +1450,7 @@
         <v>234</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1531,7 +1528,7 @@
         <v>236</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1557,7 +1554,7 @@
         <v>239</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1583,7 +1580,7 @@
         <v>236</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1635,7 +1632,7 @@
         <v>236</v>
       </c>
       <c r="H17" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1661,7 +1658,7 @@
         <v>236</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1687,7 +1684,7 @@
         <v>240</v>
       </c>
       <c r="H19" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1713,7 +1710,7 @@
         <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1739,7 +1736,7 @@
         <v>241</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1765,7 +1762,7 @@
         <v>236</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1791,7 +1788,7 @@
         <v>242</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1817,7 +1814,7 @@
         <v>243</v>
       </c>
       <c r="H24" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1843,7 +1840,7 @@
         <v>244</v>
       </c>
       <c r="H25" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1869,7 +1866,7 @@
         <v>236</v>
       </c>
       <c r="H26" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1895,7 +1892,7 @@
         <v>245</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1921,7 +1918,7 @@
         <v>246</v>
       </c>
       <c r="H28" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1947,7 +1944,7 @@
         <v>233</v>
       </c>
       <c r="H29" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1973,7 +1970,7 @@
         <v>247</v>
       </c>
       <c r="H30" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1999,7 +1996,7 @@
         <v>248</v>
       </c>
       <c r="H31" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2025,7 +2022,7 @@
         <v>249</v>
       </c>
       <c r="H32" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2051,7 +2048,7 @@
         <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2077,7 +2074,7 @@
         <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2103,7 +2100,7 @@
         <v>236</v>
       </c>
       <c r="H35" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2207,7 +2204,7 @@
         <v>248</v>
       </c>
       <c r="H39" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2233,7 +2230,7 @@
         <v>252</v>
       </c>
       <c r="H40" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2259,7 +2256,7 @@
         <v>253</v>
       </c>
       <c r="H41" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2363,7 +2360,7 @@
         <v>254</v>
       </c>
       <c r="H45" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2415,7 +2412,7 @@
         <v>252</v>
       </c>
       <c r="H47" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2441,7 +2438,7 @@
         <v>255</v>
       </c>
       <c r="H48" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2467,7 +2464,7 @@
         <v>249</v>
       </c>
       <c r="H49" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2493,7 +2490,7 @@
         <v>256</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2571,7 +2568,7 @@
         <v>257</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2623,7 +2620,7 @@
         <v>245</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2649,7 +2646,7 @@
         <v>241</v>
       </c>
       <c r="H56" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2675,7 +2672,7 @@
         <v>245</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2701,7 +2698,7 @@
         <v>248</v>
       </c>
       <c r="H58" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2727,7 +2724,7 @@
         <v>258</v>
       </c>
       <c r="H59" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2753,7 +2750,7 @@
         <v>259</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2779,7 +2776,7 @@
         <v>260</v>
       </c>
       <c r="H61" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2831,7 +2828,7 @@
         <v>239</v>
       </c>
       <c r="H63" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2883,7 +2880,7 @@
         <v>249</v>
       </c>
       <c r="H65" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2909,7 +2906,7 @@
         <v>245</v>
       </c>
       <c r="H66" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2961,7 +2958,7 @@
         <v>248</v>
       </c>
       <c r="H68" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3013,7 +3010,7 @@
         <v>262</v>
       </c>
       <c r="H70" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3039,7 +3036,7 @@
         <v>248</v>
       </c>
       <c r="H71" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3065,7 +3062,7 @@
         <v>248</v>
       </c>
       <c r="H72" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3117,7 +3114,7 @@
         <v>263</v>
       </c>
       <c r="H74" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3169,7 +3166,7 @@
         <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3195,7 +3192,7 @@
         <v>253</v>
       </c>
       <c r="H77" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3221,7 +3218,7 @@
         <v>264</v>
       </c>
       <c r="H78" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3247,7 +3244,7 @@
         <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3273,7 +3270,7 @@
         <v>234</v>
       </c>
       <c r="H80" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3299,7 +3296,7 @@
         <v>249</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3322,10 +3319,10 @@
         <v>216</v>
       </c>
       <c r="G82" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="H82" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3351,7 +3348,7 @@
         <v>245</v>
       </c>
       <c r="H83" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3377,7 +3374,7 @@
         <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3400,10 +3397,10 @@
         <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H85" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3429,7 +3426,7 @@
         <v>250</v>
       </c>
       <c r="H86" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3452,10 +3449,10 @@
         <v>95</v>
       </c>
       <c r="G87" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H87" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3507,7 +3504,7 @@
         <v>254</v>
       </c>
       <c r="H89" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3530,10 +3527,10 @@
         <v>222</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3582,10 +3579,10 @@
         <v>224</v>
       </c>
       <c r="G92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H92" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3611,7 +3608,7 @@
         <v>249</v>
       </c>
       <c r="H93" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3634,10 +3631,10 @@
         <v>226</v>
       </c>
       <c r="G94" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H94" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3660,10 +3657,10 @@
         <v>103</v>
       </c>
       <c r="G95" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3689,7 +3686,7 @@
         <v>245</v>
       </c>
       <c r="H96" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3712,10 +3709,10 @@
         <v>228</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H97" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3767,7 +3764,7 @@
         <v>248</v>
       </c>
       <c r="H99" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3790,10 +3787,10 @@
         <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="H100" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:8">
